--- a/data/pca/factorExposure/factorExposure_2015-12-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-12-16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01793518932871562</v>
+        <v>-0.01711245839014862</v>
       </c>
       <c r="C2">
-        <v>-0.03241049710484502</v>
+        <v>-0.0338657018899105</v>
       </c>
       <c r="D2">
-        <v>-0.09276340636708355</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.1170143758043896</v>
+      </c>
+      <c r="E2">
+        <v>0.06191137738493838</v>
+      </c>
+      <c r="F2">
+        <v>0.02175346112428228</v>
+      </c>
+      <c r="G2">
+        <v>-0.05250144763853246</v>
+      </c>
+      <c r="H2">
+        <v>-0.0969282449631431</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.02057143452246146</v>
+        <v>-0.01209138809668598</v>
       </c>
       <c r="C3">
-        <v>-0.0509863175375035</v>
+        <v>-0.03529587909743186</v>
       </c>
       <c r="D3">
-        <v>-0.1447151792261577</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.08586490900343004</v>
+      </c>
+      <c r="E3">
+        <v>0.06176656676280334</v>
+      </c>
+      <c r="F3">
+        <v>0.03225626701322665</v>
+      </c>
+      <c r="G3">
+        <v>-0.08400194056248614</v>
+      </c>
+      <c r="H3">
+        <v>-0.03955282746984706</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.0515693503860011</v>
+        <v>-0.05505709770105688</v>
       </c>
       <c r="C4">
-        <v>-0.03474103253203941</v>
+        <v>-0.0631856629126703</v>
       </c>
       <c r="D4">
-        <v>-0.1279031368294386</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.1415883699300058</v>
+      </c>
+      <c r="E4">
+        <v>0.04821624947725809</v>
+      </c>
+      <c r="F4">
+        <v>0.02108456212104079</v>
+      </c>
+      <c r="G4">
+        <v>0.02774075469267053</v>
+      </c>
+      <c r="H4">
+        <v>0.03475327891270436</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.04381577941880461</v>
+        <v>-0.04037756160424226</v>
       </c>
       <c r="C6">
-        <v>-0.004383498444633047</v>
+        <v>-0.02574948988967845</v>
       </c>
       <c r="D6">
-        <v>-0.1310144312027481</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.129502177635377</v>
+      </c>
+      <c r="E6">
+        <v>0.02674918962066491</v>
+      </c>
+      <c r="F6">
+        <v>0.01444993390101994</v>
+      </c>
+      <c r="G6">
+        <v>-0.00948483349985807</v>
+      </c>
+      <c r="H6">
+        <v>-0.01254913265906457</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02235725513096437</v>
+        <v>-0.01559443008950958</v>
       </c>
       <c r="C7">
-        <v>-0.01433430435146345</v>
+        <v>-0.0299036983376755</v>
       </c>
       <c r="D7">
-        <v>-0.09213022450662407</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.0911960038925257</v>
+      </c>
+      <c r="E7">
+        <v>0.02825732686745389</v>
+      </c>
+      <c r="F7">
+        <v>0.01696828942260456</v>
+      </c>
+      <c r="G7">
+        <v>0.02356072431294092</v>
+      </c>
+      <c r="H7">
+        <v>-0.1032633203276016</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.009883163338349113</v>
+        <v>-0.007780435967120398</v>
       </c>
       <c r="C8">
-        <v>-0.02796303437472276</v>
+        <v>-0.03786531597284059</v>
       </c>
       <c r="D8">
-        <v>-0.06352624669170083</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.07709060668119233</v>
+      </c>
+      <c r="E8">
+        <v>0.03609366793511085</v>
+      </c>
+      <c r="F8">
+        <v>0.04032758896942203</v>
+      </c>
+      <c r="G8">
+        <v>-0.006340313295155751</v>
+      </c>
+      <c r="H8">
+        <v>-0.04234682342956353</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.0428881232902336</v>
+        <v>-0.04230157623862273</v>
       </c>
       <c r="C9">
-        <v>-0.03606478070969767</v>
+        <v>-0.05897360846562687</v>
       </c>
       <c r="D9">
-        <v>-0.1112110378401382</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.1187555601731169</v>
+      </c>
+      <c r="E9">
+        <v>0.03467506950021259</v>
+      </c>
+      <c r="F9">
+        <v>0.003515647544761445</v>
+      </c>
+      <c r="G9">
+        <v>0.02315140120037715</v>
+      </c>
+      <c r="H9">
+        <v>-0.001790279630342943</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.09392061223263659</v>
+        <v>-0.1368059405613557</v>
       </c>
       <c r="C10">
-        <v>0.1956997534031279</v>
+        <v>0.18880283149294</v>
       </c>
       <c r="D10">
-        <v>0.000668864611506688</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.0004483619441449115</v>
+      </c>
+      <c r="E10">
+        <v>0.04736004983395239</v>
+      </c>
+      <c r="F10">
+        <v>0.02055839361575161</v>
+      </c>
+      <c r="G10">
+        <v>0.04105743040671919</v>
+      </c>
+      <c r="H10">
+        <v>0.00528320667633908</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.0358210541319274</v>
+        <v>-0.02914807395943629</v>
       </c>
       <c r="C11">
-        <v>-0.03733154410305303</v>
+        <v>-0.04311486140580728</v>
       </c>
       <c r="D11">
-        <v>-0.06195555891274229</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.05880373163883504</v>
+      </c>
+      <c r="E11">
+        <v>-0.00490181763778823</v>
+      </c>
+      <c r="F11">
+        <v>0.001974220939490522</v>
+      </c>
+      <c r="G11">
+        <v>0.005968623921282034</v>
+      </c>
+      <c r="H11">
+        <v>-0.04554626682511975</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04075808233287122</v>
+        <v>-0.03401457692004425</v>
       </c>
       <c r="C12">
-        <v>-0.03950433212461426</v>
+        <v>-0.04572197775196374</v>
       </c>
       <c r="D12">
-        <v>-0.06099578495425184</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05697604003148792</v>
+      </c>
+      <c r="E12">
+        <v>0.002823270797756472</v>
+      </c>
+      <c r="F12">
+        <v>-0.004096091990561946</v>
+      </c>
+      <c r="G12">
+        <v>0.01183693471891502</v>
+      </c>
+      <c r="H12">
+        <v>-0.05863063694335727</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01605237926860752</v>
+        <v>-0.01941638765849282</v>
       </c>
       <c r="C13">
-        <v>-0.0264339856033874</v>
+        <v>-0.03852063904210931</v>
       </c>
       <c r="D13">
-        <v>-0.125171227947929</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1428265098607645</v>
+      </c>
+      <c r="E13">
+        <v>0.05115072752818364</v>
+      </c>
+      <c r="F13">
+        <v>0.02883435095972299</v>
+      </c>
+      <c r="G13">
+        <v>0.00582530726950946</v>
+      </c>
+      <c r="H13">
+        <v>-0.09601768028382908</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.011857563891735</v>
+        <v>-0.007822959019967405</v>
       </c>
       <c r="C14">
-        <v>-0.01960371705959335</v>
+        <v>-0.02464825339571425</v>
       </c>
       <c r="D14">
-        <v>-0.0835839154767882</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.0850641118029391</v>
+      </c>
+      <c r="E14">
+        <v>0.03170576216721707</v>
+      </c>
+      <c r="F14">
+        <v>-0.007010946563034121</v>
+      </c>
+      <c r="G14">
+        <v>0.005067536254393916</v>
+      </c>
+      <c r="H14">
+        <v>-0.09563353992540594</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.00127870344698225</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>-0.009633044354753732</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.02860606552076597</v>
+      </c>
+      <c r="E15">
+        <v>0.005409838392157235</v>
+      </c>
+      <c r="F15">
+        <v>-0.001743967232107502</v>
+      </c>
+      <c r="G15">
+        <v>-0.006798699898365918</v>
+      </c>
+      <c r="H15">
+        <v>-0.01103905986510383</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.03758793703227613</v>
+        <v>-0.02989714331018473</v>
       </c>
       <c r="C16">
-        <v>-0.03944754478652054</v>
+        <v>-0.04381010094734521</v>
       </c>
       <c r="D16">
-        <v>-0.06917326471285112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06143291762792412</v>
+      </c>
+      <c r="E16">
+        <v>0.009075360740896163</v>
+      </c>
+      <c r="F16">
+        <v>-0.007256583752589319</v>
+      </c>
+      <c r="G16">
+        <v>0.002134475588986346</v>
+      </c>
+      <c r="H16">
+        <v>-0.05425923260780365</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.007626890059750488</v>
+        <v>-0.009367383713434492</v>
       </c>
       <c r="C19">
-        <v>-0.01992371245527732</v>
+        <v>-0.02139659849752026</v>
       </c>
       <c r="D19">
-        <v>-0.1685725579011659</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1305544971029117</v>
+      </c>
+      <c r="E19">
+        <v>0.06660591922426816</v>
+      </c>
+      <c r="F19">
+        <v>-0.01424407967153372</v>
+      </c>
+      <c r="G19">
+        <v>-0.01370620799339524</v>
+      </c>
+      <c r="H19">
+        <v>-0.06338029392290266</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.02110185235818002</v>
+        <v>-0.01599482408595847</v>
       </c>
       <c r="C20">
-        <v>-0.02013670303496458</v>
+        <v>-0.03222208191607409</v>
       </c>
       <c r="D20">
-        <v>-0.08685652532810069</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.09525472786947915</v>
+      </c>
+      <c r="E20">
+        <v>0.05164976052969264</v>
+      </c>
+      <c r="F20">
+        <v>-0.002297299344316011</v>
+      </c>
+      <c r="G20">
+        <v>0.007295363978637298</v>
+      </c>
+      <c r="H20">
+        <v>-0.0549698489514269</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.009242103241828501</v>
+        <v>-0.01433527934044487</v>
       </c>
       <c r="C21">
-        <v>-0.02777672932986338</v>
+        <v>-0.03747791686483496</v>
       </c>
       <c r="D21">
-        <v>-0.1269842600824369</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.137285340144651</v>
+      </c>
+      <c r="E21">
+        <v>0.0870151045590826</v>
+      </c>
+      <c r="F21">
+        <v>-0.001432406880639113</v>
+      </c>
+      <c r="G21">
+        <v>0.0460972985853697</v>
+      </c>
+      <c r="H21">
+        <v>-0.1074029108405794</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.005596750767869039</v>
+        <v>-0.005606945228365461</v>
       </c>
       <c r="C22">
-        <v>-0.02634903815458374</v>
+        <v>-0.03930027928039243</v>
       </c>
       <c r="D22">
-        <v>-0.07577369205304639</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1303878957733165</v>
+      </c>
+      <c r="E22">
+        <v>0.02200638859863838</v>
+      </c>
+      <c r="F22">
+        <v>0.08797797280869411</v>
+      </c>
+      <c r="G22">
+        <v>-0.06872530096973445</v>
+      </c>
+      <c r="H22">
+        <v>0.03405560720128586</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.005653236256190677</v>
+        <v>-0.005705133450377647</v>
       </c>
       <c r="C23">
-        <v>-0.02628312354213687</v>
+        <v>-0.03974741111222286</v>
       </c>
       <c r="D23">
-        <v>-0.07519252592719518</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1298420496181474</v>
+      </c>
+      <c r="E23">
+        <v>0.02226235917455131</v>
+      </c>
+      <c r="F23">
+        <v>0.08794424403447455</v>
+      </c>
+      <c r="G23">
+        <v>-0.06784476689186193</v>
+      </c>
+      <c r="H23">
+        <v>0.0344065589472355</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03647493923608104</v>
+        <v>-0.03139243782225636</v>
       </c>
       <c r="C24">
-        <v>-0.04361086841938724</v>
+        <v>-0.05445490798269475</v>
       </c>
       <c r="D24">
-        <v>-0.07023280110353625</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.0660573426167724</v>
+      </c>
+      <c r="E24">
+        <v>0.01101202147574799</v>
+      </c>
+      <c r="F24">
+        <v>-0.004343568263446788</v>
+      </c>
+      <c r="G24">
+        <v>0.01512502814035878</v>
+      </c>
+      <c r="H24">
+        <v>-0.06410758954873098</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.04277132038753877</v>
+        <v>-0.03629115135228685</v>
       </c>
       <c r="C25">
-        <v>-0.0468692781289586</v>
+        <v>-0.05292407432694132</v>
       </c>
       <c r="D25">
-        <v>-0.06948983064533197</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.06215054902027691</v>
+      </c>
+      <c r="E25">
+        <v>0.01133996108941102</v>
+      </c>
+      <c r="F25">
+        <v>0.002007624116952064</v>
+      </c>
+      <c r="G25">
+        <v>0.01928768066377262</v>
+      </c>
+      <c r="H25">
+        <v>-0.05195976056529553</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.02028092768105541</v>
+        <v>-0.0179865208787633</v>
       </c>
       <c r="C26">
-        <v>-0.00659125931990083</v>
+        <v>-0.01824363319617914</v>
       </c>
       <c r="D26">
-        <v>-0.05108554515665308</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.06143959868988282</v>
+      </c>
+      <c r="E26">
+        <v>0.0267688839797245</v>
+      </c>
+      <c r="F26">
+        <v>0.003042124912271515</v>
+      </c>
+      <c r="G26">
+        <v>0.001736779676232764</v>
+      </c>
+      <c r="H26">
+        <v>-0.06073221219114327</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.135982780635322</v>
+        <v>-0.1930421321585277</v>
       </c>
       <c r="C28">
-        <v>0.2739514430518217</v>
+        <v>0.2546576549106382</v>
       </c>
       <c r="D28">
-        <v>0.03732407460870949</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01568578131818826</v>
+      </c>
+      <c r="E28">
+        <v>0.07211054593650679</v>
+      </c>
+      <c r="F28">
+        <v>0.007724769573627947</v>
+      </c>
+      <c r="G28">
+        <v>0.07625370544481204</v>
+      </c>
+      <c r="H28">
+        <v>-0.004300654031752765</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.005228337125663282</v>
+        <v>-0.006299884280870599</v>
       </c>
       <c r="C29">
-        <v>-0.01986984953892919</v>
+        <v>-0.02355242499770135</v>
       </c>
       <c r="D29">
-        <v>-0.06644771517874197</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.07916029494250683</v>
+      </c>
+      <c r="E29">
+        <v>0.0315354435615964</v>
+      </c>
+      <c r="F29">
+        <v>0.005151444502225917</v>
+      </c>
+      <c r="G29">
+        <v>0.02203513434840562</v>
+      </c>
+      <c r="H29">
+        <v>-0.09750481959903469</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.04289295686945415</v>
+        <v>-0.04301818019979465</v>
       </c>
       <c r="C30">
-        <v>-0.03325482457509023</v>
+        <v>-0.05901442863025536</v>
       </c>
       <c r="D30">
-        <v>-0.1643285594078852</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1763393122931141</v>
+      </c>
+      <c r="E30">
+        <v>0.01564380367914465</v>
+      </c>
+      <c r="F30">
+        <v>0.00451891948534699</v>
+      </c>
+      <c r="G30">
+        <v>-0.0348383583242092</v>
+      </c>
+      <c r="H30">
+        <v>-0.003526272547965438</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06742185334881438</v>
+        <v>-0.05524535925715578</v>
       </c>
       <c r="C31">
-        <v>-0.05063930300692802</v>
+        <v>-0.07200549139224005</v>
       </c>
       <c r="D31">
-        <v>-0.06467236645029174</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.05331711186268289</v>
+      </c>
+      <c r="E31">
+        <v>0.02602115075964684</v>
+      </c>
+      <c r="F31">
+        <v>0.0380055829419526</v>
+      </c>
+      <c r="G31">
+        <v>0.01423448847161054</v>
+      </c>
+      <c r="H31">
+        <v>-0.03574146581272424</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.002787787210039389</v>
+        <v>-0.01163497992603626</v>
       </c>
       <c r="C32">
-        <v>-0.004215383954372085</v>
+        <v>-0.01638303490942594</v>
       </c>
       <c r="D32">
-        <v>-0.06151125651981194</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.09584186081580275</v>
+      </c>
+      <c r="E32">
+        <v>0.08192614835232875</v>
+      </c>
+      <c r="F32">
+        <v>0.01485807331954003</v>
+      </c>
+      <c r="G32">
+        <v>0.05413672148125276</v>
+      </c>
+      <c r="H32">
+        <v>-0.08754356639869412</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.02800220229594686</v>
+        <v>-0.02527600201739699</v>
       </c>
       <c r="C33">
-        <v>-0.0202845513519756</v>
+        <v>-0.04133149700698305</v>
       </c>
       <c r="D33">
-        <v>-0.135805384698377</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1326412150000447</v>
+      </c>
+      <c r="E33">
+        <v>0.0394038730718617</v>
+      </c>
+      <c r="F33">
+        <v>0.01530263525652468</v>
+      </c>
+      <c r="G33">
+        <v>0.008399869142983071</v>
+      </c>
+      <c r="H33">
+        <v>-0.06284433200093972</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03450886117356203</v>
+        <v>-0.02829745911845299</v>
       </c>
       <c r="C34">
-        <v>-0.06007422726813685</v>
+        <v>-0.06118013867948717</v>
       </c>
       <c r="D34">
-        <v>-0.0708485406400511</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.05938515959972385</v>
+      </c>
+      <c r="E34">
+        <v>-0.006485109380232591</v>
+      </c>
+      <c r="F34">
+        <v>-0.009773569738745012</v>
+      </c>
+      <c r="G34">
+        <v>0.01698142432872042</v>
+      </c>
+      <c r="H34">
+        <v>-0.07230332946066118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-0.0006211952904791474</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.0005538737464869584</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.003855918632246081</v>
+      </c>
+      <c r="E35">
+        <v>-1.75694498186993e-05</v>
+      </c>
+      <c r="F35">
+        <v>0.0002584125312317718</v>
+      </c>
+      <c r="G35">
+        <v>-0.0005062692990102669</v>
+      </c>
+      <c r="H35">
+        <v>-0.00264335039452303</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02065755935112255</v>
+        <v>-0.01836567184961649</v>
       </c>
       <c r="C36">
-        <v>-0.001927083565917439</v>
+        <v>-0.01551524891755826</v>
       </c>
       <c r="D36">
-        <v>-0.07241641359316575</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.07616338248397735</v>
+      </c>
+      <c r="E36">
+        <v>0.03240967546855537</v>
+      </c>
+      <c r="F36">
+        <v>-0.00126511269501466</v>
+      </c>
+      <c r="G36">
+        <v>0.01607425783002963</v>
+      </c>
+      <c r="H36">
+        <v>-0.05016531678277792</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.02884558902742374</v>
+        <v>-0.02218527748600038</v>
       </c>
       <c r="C38">
-        <v>-0.01718605249963996</v>
+        <v>-0.02209383998958021</v>
       </c>
       <c r="D38">
-        <v>-0.05979799368896415</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.06124174168678893</v>
+      </c>
+      <c r="E38">
+        <v>0.03943736650880218</v>
+      </c>
+      <c r="F38">
+        <v>-0.004921321714654056</v>
+      </c>
+      <c r="G38">
+        <v>-0.03208258731773569</v>
+      </c>
+      <c r="H38">
+        <v>-0.041744944701468</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.04222573435665783</v>
+        <v>-0.03691032310883798</v>
       </c>
       <c r="C39">
-        <v>-0.05135208091577876</v>
+        <v>-0.0640505302515498</v>
       </c>
       <c r="D39">
-        <v>-0.09313719349218225</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1034734806137992</v>
+      </c>
+      <c r="E39">
+        <v>0.00648131472277393</v>
+      </c>
+      <c r="F39">
+        <v>-0.02665005991308502</v>
+      </c>
+      <c r="G39">
+        <v>0.00246794981062177</v>
+      </c>
+      <c r="H39">
+        <v>-0.07896025449872417</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01887644271994032</v>
+        <v>-0.01530930013485436</v>
       </c>
       <c r="C40">
-        <v>-0.04177265883741083</v>
+        <v>-0.03685529361737504</v>
       </c>
       <c r="D40">
-        <v>-0.07996041395884654</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.08519143643943712</v>
+      </c>
+      <c r="E40">
+        <v>0.06375422365008408</v>
+      </c>
+      <c r="F40">
+        <v>0.06155770747164019</v>
+      </c>
+      <c r="G40">
+        <v>-0.02498436002411298</v>
+      </c>
+      <c r="H40">
+        <v>-0.1676987771109635</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.02563726294896306</v>
+        <v>-0.02359485964240633</v>
       </c>
       <c r="C41">
-        <v>0.009861699899510655</v>
+        <v>-0.007726884929669397</v>
       </c>
       <c r="D41">
-        <v>-0.07191724238389295</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.05866228223739088</v>
+      </c>
+      <c r="E41">
+        <v>0.05046106875533488</v>
+      </c>
+      <c r="F41">
+        <v>0.003603400083885527</v>
+      </c>
+      <c r="G41">
+        <v>-0.001331751806667479</v>
+      </c>
+      <c r="H41">
+        <v>-0.04860950518860915</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.03574984494774206</v>
+        <v>-0.02571441989893974</v>
       </c>
       <c r="C43">
-        <v>-0.001244939402871735</v>
+        <v>-0.01850968297340981</v>
       </c>
       <c r="D43">
-        <v>-0.1101029962717608</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.08971643718910224</v>
+      </c>
+      <c r="E43">
+        <v>0.03262239175830179</v>
+      </c>
+      <c r="F43">
+        <v>0.00517990476981127</v>
+      </c>
+      <c r="G43">
+        <v>-0.00395074424701447</v>
+      </c>
+      <c r="H43">
+        <v>-0.06565340787738495</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01368785369546585</v>
+        <v>-0.01703636056584704</v>
       </c>
       <c r="C44">
-        <v>-0.03929812307979739</v>
+        <v>-0.04086790549380777</v>
       </c>
       <c r="D44">
-        <v>-0.08799118586218892</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09697586842640853</v>
+      </c>
+      <c r="E44">
+        <v>0.06819538662399348</v>
+      </c>
+      <c r="F44">
+        <v>0.005945025906520225</v>
+      </c>
+      <c r="G44">
+        <v>0.01714653357332669</v>
+      </c>
+      <c r="H44">
+        <v>-0.07321239631026935</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02023515969804193</v>
+        <v>-0.01648072033218625</v>
       </c>
       <c r="C46">
-        <v>-0.02012691504596986</v>
+        <v>-0.02989187561437855</v>
       </c>
       <c r="D46">
-        <v>-0.07555252310298598</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.08628200748268437</v>
+      </c>
+      <c r="E46">
+        <v>0.03786306210781683</v>
+      </c>
+      <c r="F46">
+        <v>-0.01623730587613119</v>
+      </c>
+      <c r="G46">
+        <v>0.03071059747891172</v>
+      </c>
+      <c r="H46">
+        <v>-0.0985182585602743</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09652516524606661</v>
+        <v>-0.085501331130763</v>
       </c>
       <c r="C47">
-        <v>-0.06639538601242639</v>
+        <v>-0.08908241345199173</v>
       </c>
       <c r="D47">
-        <v>-0.04527046444586089</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.03564028325097831</v>
+      </c>
+      <c r="E47">
+        <v>0.03251538300841478</v>
+      </c>
+      <c r="F47">
+        <v>0.02391331468902794</v>
+      </c>
+      <c r="G47">
+        <v>0.05548372404283392</v>
+      </c>
+      <c r="H47">
+        <v>-0.01552405742211278</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01726269725323886</v>
+        <v>-0.01652274123678707</v>
       </c>
       <c r="C48">
-        <v>-0.01083460057421361</v>
+        <v>-0.02031867870837253</v>
       </c>
       <c r="D48">
-        <v>-0.0685985391681968</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.07516563323774371</v>
+      </c>
+      <c r="E48">
+        <v>0.05057029073039865</v>
+      </c>
+      <c r="F48">
+        <v>-0.005825851999852327</v>
+      </c>
+      <c r="G48">
+        <v>0.01389952789678567</v>
+      </c>
+      <c r="H48">
+        <v>-0.05715212053818354</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.07897110824237842</v>
+        <v>-0.06038301650697407</v>
       </c>
       <c r="C50">
-        <v>-0.06080320770996773</v>
+        <v>-0.06983710514412439</v>
       </c>
       <c r="D50">
-        <v>-0.06986678037479488</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.06101043442315573</v>
+      </c>
+      <c r="E50">
+        <v>0.03932105626510093</v>
+      </c>
+      <c r="F50">
+        <v>0.04434016142782592</v>
+      </c>
+      <c r="G50">
+        <v>-0.009643211570206204</v>
+      </c>
+      <c r="H50">
+        <v>-0.04241736267069388</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.006548580104005604</v>
+        <v>-0.006405622798560801</v>
       </c>
       <c r="C51">
-        <v>-0.01475593174222257</v>
+        <v>-0.01654529023461897</v>
       </c>
       <c r="D51">
-        <v>-0.07646795724040074</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.08540889890741234</v>
+      </c>
+      <c r="E51">
+        <v>0.02306453294604131</v>
+      </c>
+      <c r="F51">
+        <v>0.001172002968394365</v>
+      </c>
+      <c r="G51">
+        <v>-0.002014323481639542</v>
+      </c>
+      <c r="H51">
+        <v>-0.0776084187119794</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.07735159856300736</v>
+        <v>-0.08675580682010435</v>
       </c>
       <c r="C53">
-        <v>-0.08799028416039807</v>
+        <v>-0.1009548558538576</v>
       </c>
       <c r="D53">
-        <v>-0.02259944555693403</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.008824513144750263</v>
+      </c>
+      <c r="E53">
+        <v>0.0974741249985635</v>
+      </c>
+      <c r="F53">
+        <v>0.04703748452731014</v>
+      </c>
+      <c r="G53">
+        <v>0.09508815113380166</v>
+      </c>
+      <c r="H53">
+        <v>0.0155303027347534</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.0341190845147615</v>
+        <v>-0.02687698949897111</v>
       </c>
       <c r="C54">
-        <v>-0.02976894661966462</v>
+        <v>-0.03527110340993785</v>
       </c>
       <c r="D54">
-        <v>-0.0886811629827443</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.08709791986765278</v>
+      </c>
+      <c r="E54">
+        <v>0.03975547741792058</v>
+      </c>
+      <c r="F54">
+        <v>-0.01453208630028677</v>
+      </c>
+      <c r="G54">
+        <v>0.002395122670046644</v>
+      </c>
+      <c r="H54">
+        <v>-0.1122594638220125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08746343754133447</v>
+        <v>-0.08418315323437996</v>
       </c>
       <c r="C55">
-        <v>-0.06604646299030235</v>
+        <v>-0.0819289988512051</v>
       </c>
       <c r="D55">
-        <v>0.0005517813164283146</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.009726387759762652</v>
+      </c>
+      <c r="E55">
+        <v>0.05937278912781857</v>
+      </c>
+      <c r="F55">
+        <v>0.04471169838606266</v>
+      </c>
+      <c r="G55">
+        <v>0.0417902711456316</v>
+      </c>
+      <c r="H55">
+        <v>0.01739945276236704</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1345633260328821</v>
+        <v>-0.1299675434119585</v>
       </c>
       <c r="C56">
-        <v>-0.1025934567579738</v>
+        <v>-0.12585217936267</v>
       </c>
       <c r="D56">
-        <v>-0.004495765373929864</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.0120329731172633</v>
+      </c>
+      <c r="E56">
+        <v>0.06228584625510453</v>
+      </c>
+      <c r="F56">
+        <v>0.03160373715483792</v>
+      </c>
+      <c r="G56">
+        <v>0.05995156615259735</v>
+      </c>
+      <c r="H56">
+        <v>0.00841220757289492</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.03300054490548098</v>
+        <v>-0.03548433191752932</v>
       </c>
       <c r="C58">
-        <v>0.02373365668048351</v>
+        <v>-0.02319640324645454</v>
       </c>
       <c r="D58">
-        <v>-0.3948524511389173</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.394458689002488</v>
+      </c>
+      <c r="E58">
+        <v>0.2182391653958718</v>
+      </c>
+      <c r="F58">
+        <v>0.1508065093817975</v>
+      </c>
+      <c r="G58">
+        <v>-0.4022279521988969</v>
+      </c>
+      <c r="H58">
+        <v>0.3763303982593315</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1361669148623899</v>
+        <v>-0.1737913902636838</v>
       </c>
       <c r="C59">
-        <v>0.1931195078350275</v>
+        <v>0.1718577645416445</v>
       </c>
       <c r="D59">
-        <v>-0.01843008008335731</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.04544069283222368</v>
+      </c>
+      <c r="E59">
+        <v>0.02002102688386914</v>
+      </c>
+      <c r="F59">
+        <v>-0.03995023613292565</v>
+      </c>
+      <c r="G59">
+        <v>-0.000829723923895077</v>
+      </c>
+      <c r="H59">
+        <v>0.02216653274327271</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2541463589148146</v>
+        <v>-0.2297919734419462</v>
       </c>
       <c r="C60">
-        <v>-0.05441177760812569</v>
+        <v>-0.09690167174056454</v>
       </c>
       <c r="D60">
-        <v>-0.1392303022325052</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.1027884875192135</v>
+      </c>
+      <c r="E60">
+        <v>-0.3706606682706919</v>
+      </c>
+      <c r="F60">
+        <v>0.01847700263339819</v>
+      </c>
+      <c r="G60">
+        <v>0.01960354382420979</v>
+      </c>
+      <c r="H60">
+        <v>0.09748944548958416</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.04848592269368194</v>
+        <v>-0.04239542015822718</v>
       </c>
       <c r="C61">
-        <v>-0.04947132973652555</v>
+        <v>-0.05941381949510399</v>
       </c>
       <c r="D61">
-        <v>-0.1022585550307829</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.09414483960836094</v>
+      </c>
+      <c r="E61">
+        <v>0.002580943226429992</v>
+      </c>
+      <c r="F61">
+        <v>-0.01692357355479875</v>
+      </c>
+      <c r="G61">
+        <v>0.02360198433485291</v>
+      </c>
+      <c r="H61">
+        <v>-0.07434232241941936</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01707247342551314</v>
+        <v>-0.01504109087715739</v>
       </c>
       <c r="C63">
-        <v>-0.02017436373869426</v>
+        <v>-0.03298564619445744</v>
       </c>
       <c r="D63">
-        <v>-0.06138422943644531</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.06830650136541182</v>
+      </c>
+      <c r="E63">
+        <v>0.0302951645190171</v>
+      </c>
+      <c r="F63">
+        <v>0.01807130237831272</v>
+      </c>
+      <c r="G63">
+        <v>9.969689448743414e-05</v>
+      </c>
+      <c r="H63">
+        <v>-0.04477371658685027</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05981391154865438</v>
+        <v>-0.05508911354771685</v>
       </c>
       <c r="C64">
-        <v>-0.06055449691869131</v>
+        <v>-0.07950375449350809</v>
       </c>
       <c r="D64">
-        <v>-0.0623882835835306</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.05544563702098931</v>
+      </c>
+      <c r="E64">
+        <v>0.02582850734201826</v>
+      </c>
+      <c r="F64">
+        <v>-0.01596244341721904</v>
+      </c>
+      <c r="G64">
+        <v>0.05342011939244541</v>
+      </c>
+      <c r="H64">
+        <v>-0.03956125685663442</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.05902055241274561</v>
+        <v>-0.0506710299216782</v>
       </c>
       <c r="C65">
-        <v>0.0002494922011320062</v>
+        <v>-0.02495664354776357</v>
       </c>
       <c r="D65">
-        <v>-0.1142934724466523</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.1184718406025481</v>
+      </c>
+      <c r="E65">
+        <v>0.001275471904733174</v>
+      </c>
+      <c r="F65">
+        <v>0.01421947453271633</v>
+      </c>
+      <c r="G65">
+        <v>-0.03705671980073941</v>
+      </c>
+      <c r="H65">
+        <v>0.02275053412032823</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04481780565707075</v>
+        <v>-0.0417478149815521</v>
       </c>
       <c r="C66">
-        <v>-0.05368619984536688</v>
+        <v>-0.07235550766601619</v>
       </c>
       <c r="D66">
-        <v>-0.1133175096268091</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.128660844548673</v>
+      </c>
+      <c r="E66">
+        <v>0.01204807093543678</v>
+      </c>
+      <c r="F66">
+        <v>-0.01079415910042885</v>
+      </c>
+      <c r="G66">
+        <v>-0.005397975277048378</v>
+      </c>
+      <c r="H66">
+        <v>-0.05843944424173447</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.04691416004653268</v>
+        <v>-0.03852983603558248</v>
       </c>
       <c r="C67">
-        <v>-0.02578241412539616</v>
+        <v>-0.02833608896553792</v>
       </c>
       <c r="D67">
-        <v>-0.03056355450140453</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.02357839163446646</v>
+      </c>
+      <c r="E67">
+        <v>0.02004198307386477</v>
+      </c>
+      <c r="F67">
+        <v>-0.0004440373768501853</v>
+      </c>
+      <c r="G67">
+        <v>-0.02841090694849564</v>
+      </c>
+      <c r="H67">
+        <v>-0.0412511580090744</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1658296990010573</v>
+        <v>-0.1952299169256752</v>
       </c>
       <c r="C68">
-        <v>0.2518652693320521</v>
+        <v>0.205365691749691</v>
       </c>
       <c r="D68">
-        <v>0.01422005957798475</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01725978820045162</v>
+      </c>
+      <c r="E68">
+        <v>0.04894504061298559</v>
+      </c>
+      <c r="F68">
+        <v>0.03163366685354282</v>
+      </c>
+      <c r="G68">
+        <v>-0.008024248270194909</v>
+      </c>
+      <c r="H68">
+        <v>0.005433079961519866</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.08683289629879108</v>
+        <v>-0.07733156780416225</v>
       </c>
       <c r="C69">
-        <v>-0.07763637346963438</v>
+        <v>-0.09773547649466979</v>
       </c>
       <c r="D69">
-        <v>-0.05953920648312889</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.04958040458293735</v>
+      </c>
+      <c r="E69">
+        <v>0.02425933317045138</v>
+      </c>
+      <c r="F69">
+        <v>0.004528932844076833</v>
+      </c>
+      <c r="G69">
+        <v>0.03757865341842277</v>
+      </c>
+      <c r="H69">
+        <v>-0.02715951637467309</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1391216239549109</v>
+        <v>-0.1799772776204686</v>
       </c>
       <c r="C71">
-        <v>0.2473434746271803</v>
+        <v>0.216608165432131</v>
       </c>
       <c r="D71">
-        <v>-0.01970003679791522</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.03907116202701536</v>
+      </c>
+      <c r="E71">
+        <v>0.05060885650956885</v>
+      </c>
+      <c r="F71">
+        <v>0.03633024219241394</v>
+      </c>
+      <c r="G71">
+        <v>0.03683192660776403</v>
+      </c>
+      <c r="H71">
+        <v>-0.02106399158316332</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09938766718720965</v>
+        <v>-0.1009224041357115</v>
       </c>
       <c r="C72">
-        <v>-0.0374594348393724</v>
+        <v>-0.0672726781828723</v>
       </c>
       <c r="D72">
-        <v>-0.09393683170787345</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.0981081683708587</v>
+      </c>
+      <c r="E72">
+        <v>-0.03599426642825346</v>
+      </c>
+      <c r="F72">
+        <v>0.03473726007846622</v>
+      </c>
+      <c r="G72">
+        <v>0.0237256240450888</v>
+      </c>
+      <c r="H72">
+        <v>-0.01904517068551662</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.3015147120351117</v>
+        <v>-0.2519484045955792</v>
       </c>
       <c r="C73">
-        <v>-0.002353012464249044</v>
+        <v>-0.07694546304416276</v>
       </c>
       <c r="D73">
-        <v>-0.2382102718644833</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.1717565815782889</v>
+      </c>
+      <c r="E73">
+        <v>-0.6704693773640744</v>
+      </c>
+      <c r="F73">
+        <v>0.00698814902688305</v>
+      </c>
+      <c r="G73">
+        <v>-0.04969482524863061</v>
+      </c>
+      <c r="H73">
+        <v>0.147454696286722</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.102609179775652</v>
+        <v>-0.1001437091800969</v>
       </c>
       <c r="C74">
-        <v>-0.06811507591429063</v>
+        <v>-0.0908388270009157</v>
       </c>
       <c r="D74">
-        <v>-0.02271801463408062</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.001095787482331852</v>
+      </c>
+      <c r="E74">
+        <v>0.07988322240898721</v>
+      </c>
+      <c r="F74">
+        <v>0.05971363354462001</v>
+      </c>
+      <c r="G74">
+        <v>0.05972736575602516</v>
+      </c>
+      <c r="H74">
+        <v>0.04409035817163</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.238047597410416</v>
+        <v>-0.2299952915036156</v>
       </c>
       <c r="C75">
-        <v>-0.1314750349359614</v>
+        <v>-0.166087523134134</v>
       </c>
       <c r="D75">
-        <v>0.05703960200170884</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.09791321234340862</v>
+      </c>
+      <c r="E75">
+        <v>0.09464731868968435</v>
+      </c>
+      <c r="F75">
+        <v>0.006031092430599558</v>
+      </c>
+      <c r="G75">
+        <v>0.08176462539645224</v>
+      </c>
+      <c r="H75">
+        <v>0.1060112077951312</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1285833417028845</v>
+        <v>-0.1266683881638854</v>
       </c>
       <c r="C76">
-        <v>-0.08751623416647757</v>
+        <v>-0.1152092251695585</v>
       </c>
       <c r="D76">
-        <v>-0.000845745106877768</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01597035748926824</v>
+      </c>
+      <c r="E76">
+        <v>0.1118509338628819</v>
+      </c>
+      <c r="F76">
+        <v>0.0282074571463263</v>
+      </c>
+      <c r="G76">
+        <v>0.06227798571899221</v>
+      </c>
+      <c r="H76">
+        <v>0.008458617176881773</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.06752808824477798</v>
+        <v>-0.06320566538154151</v>
       </c>
       <c r="C77">
-        <v>-0.05688146230708877</v>
+        <v>-0.06879796929080705</v>
       </c>
       <c r="D77">
-        <v>-0.06630356295104028</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1335175991979042</v>
+      </c>
+      <c r="E77">
+        <v>0.2039600819852737</v>
+      </c>
+      <c r="F77">
+        <v>-0.2336436561756724</v>
+      </c>
+      <c r="G77">
+        <v>-0.1011012226183806</v>
+      </c>
+      <c r="H77">
+        <v>0.1689680991421798</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03930819048867578</v>
+        <v>-0.0412135327352131</v>
       </c>
       <c r="C78">
-        <v>-0.04725797540356603</v>
+        <v>-0.06220692384435799</v>
       </c>
       <c r="D78">
-        <v>-0.1104012518711346</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1237741621278417</v>
+      </c>
+      <c r="E78">
+        <v>0.01118811537585851</v>
+      </c>
+      <c r="F78">
+        <v>0.01128564866660214</v>
+      </c>
+      <c r="G78">
+        <v>0.03163583243350148</v>
+      </c>
+      <c r="H78">
+        <v>-0.03159573002293101</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.0006737610366371163</v>
+        <v>-0.0428517062252201</v>
       </c>
       <c r="C79">
-        <v>0.0003751130217511114</v>
+        <v>-0.08641949234435402</v>
       </c>
       <c r="D79">
-        <v>-0.01749453251348609</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.02498265595330003</v>
+      </c>
+      <c r="E79">
+        <v>0.1711447436130548</v>
+      </c>
+      <c r="F79">
+        <v>0.1274258067232548</v>
+      </c>
+      <c r="G79">
+        <v>0.5549013033621066</v>
+      </c>
+      <c r="H79">
+        <v>0.5514133018425049</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.03055993715268199</v>
+        <v>-0.02444855647442156</v>
       </c>
       <c r="C80">
-        <v>-0.02176490325828036</v>
+        <v>-0.03963968104019487</v>
       </c>
       <c r="D80">
-        <v>-0.02789301803537714</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.0343784567046781</v>
+      </c>
+      <c r="E80">
+        <v>0.01505034100063581</v>
+      </c>
+      <c r="F80">
+        <v>-0.03252587910462651</v>
+      </c>
+      <c r="G80">
+        <v>-0.03994665493246931</v>
+      </c>
+      <c r="H80">
+        <v>-0.02771728839776881</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1414574590869899</v>
+        <v>-0.1290254520438879</v>
       </c>
       <c r="C81">
-        <v>-0.09720909009831766</v>
+        <v>-0.1188030509552033</v>
       </c>
       <c r="D81">
-        <v>0.04134377030066511</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.06422848658778936</v>
+      </c>
+      <c r="E81">
+        <v>0.1192420984541237</v>
+      </c>
+      <c r="F81">
+        <v>0.02123095102770096</v>
+      </c>
+      <c r="G81">
+        <v>0.05085365717320553</v>
+      </c>
+      <c r="H81">
+        <v>0.02755524811201175</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2952532295262666</v>
+        <v>-0.2513205254981205</v>
       </c>
       <c r="C82">
-        <v>-0.2659922210408349</v>
+        <v>-0.2529920309501401</v>
       </c>
       <c r="D82">
-        <v>0.2200933826724846</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2203665709168184</v>
+      </c>
+      <c r="E82">
+        <v>-0.01347094873711674</v>
+      </c>
+      <c r="F82">
+        <v>0.04317326431682918</v>
+      </c>
+      <c r="G82">
+        <v>0.2369500866564658</v>
+      </c>
+      <c r="H82">
+        <v>-0.448682460247588</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.02865431593424846</v>
+        <v>-0.02290840847412103</v>
       </c>
       <c r="C83">
-        <v>-0.04536542529380053</v>
+        <v>-0.05194162860620656</v>
       </c>
       <c r="D83">
-        <v>-0.04843836396240848</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05088615001401689</v>
+      </c>
+      <c r="E83">
+        <v>0.008162046824793092</v>
+      </c>
+      <c r="F83">
+        <v>-0.02145222345252927</v>
+      </c>
+      <c r="G83">
+        <v>0.002791349020666117</v>
+      </c>
+      <c r="H83">
+        <v>-0.03107299110531275</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-0.0003312644906023486</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.004790340622845743</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.01587478971062572</v>
+      </c>
+      <c r="E84">
+        <v>0.01463602520818868</v>
+      </c>
+      <c r="F84">
+        <v>0.007338468931145098</v>
+      </c>
+      <c r="G84">
+        <v>-0.009550625011298759</v>
+      </c>
+      <c r="H84">
+        <v>-0.002045593840650165</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1805284208575929</v>
+        <v>-0.1606234435793458</v>
       </c>
       <c r="C85">
-        <v>-0.09195382098896242</v>
+        <v>-0.1329198364436856</v>
       </c>
       <c r="D85">
-        <v>0.03456085878700894</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.06912473573089309</v>
+      </c>
+      <c r="E85">
+        <v>0.03553828621361344</v>
+      </c>
+      <c r="F85">
+        <v>0.03993304837032129</v>
+      </c>
+      <c r="G85">
+        <v>0.09170100640674059</v>
+      </c>
+      <c r="H85">
+        <v>0.1134112198845874</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01512968741704153</v>
+        <v>-0.01938398515569104</v>
       </c>
       <c r="C86">
-        <v>-0.022333880012864</v>
+        <v>-0.02320412041850104</v>
       </c>
       <c r="D86">
-        <v>-0.1363179008714824</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.1252965393118577</v>
+      </c>
+      <c r="E86">
+        <v>0.01259783927566408</v>
+      </c>
+      <c r="F86">
+        <v>-0.008524292228439942</v>
+      </c>
+      <c r="G86">
+        <v>0.02481696067057509</v>
+      </c>
+      <c r="H86">
+        <v>-0.06676793602716941</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.027982913030313</v>
+        <v>-0.03272465581362517</v>
       </c>
       <c r="C87">
-        <v>-0.001840642639896417</v>
+        <v>-0.02609633729205609</v>
       </c>
       <c r="D87">
-        <v>-0.09258806997415953</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1273882416081589</v>
+      </c>
+      <c r="E87">
+        <v>0.08146879656505378</v>
+      </c>
+      <c r="F87">
+        <v>-0.00921533967160809</v>
+      </c>
+      <c r="G87">
+        <v>-0.007714340324746239</v>
+      </c>
+      <c r="H87">
+        <v>-0.03322872162519959</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.08075202211901064</v>
+        <v>-0.07248953549542919</v>
       </c>
       <c r="C88">
-        <v>-0.03887169674005184</v>
+        <v>-0.05748233539257109</v>
       </c>
       <c r="D88">
-        <v>-0.05335740208175</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.03140599227909437</v>
+      </c>
+      <c r="E88">
+        <v>0.02525984966760886</v>
+      </c>
+      <c r="F88">
+        <v>0.005508433123002039</v>
+      </c>
+      <c r="G88">
+        <v>-2.398666404506029e-05</v>
+      </c>
+      <c r="H88">
+        <v>-0.033112630110794</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.200763069768621</v>
+        <v>-0.2716034070563808</v>
       </c>
       <c r="C89">
-        <v>0.3715881249653369</v>
+        <v>0.3531158377037349</v>
       </c>
       <c r="D89">
-        <v>0.04629818522225362</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.006780243221895353</v>
+      </c>
+      <c r="E89">
+        <v>0.06029213852341683</v>
+      </c>
+      <c r="F89">
+        <v>-0.050856075674954</v>
+      </c>
+      <c r="G89">
+        <v>0.03077097032605851</v>
+      </c>
+      <c r="H89">
+        <v>-0.05433988938666412</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1990019872038415</v>
+        <v>-0.2380919701282282</v>
       </c>
       <c r="C90">
-        <v>0.2967916451015815</v>
+        <v>0.2589173899816016</v>
       </c>
       <c r="D90">
-        <v>0.04582522568872095</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.008902575616807561</v>
+      </c>
+      <c r="E90">
+        <v>0.0484707325794145</v>
+      </c>
+      <c r="F90">
+        <v>0.01195462274940854</v>
+      </c>
+      <c r="G90">
+        <v>-0.03369236351114425</v>
+      </c>
+      <c r="H90">
+        <v>-0.05457515580042662</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1767287790146597</v>
+        <v>-0.16249875087892</v>
       </c>
       <c r="C91">
-        <v>-0.1297242696897133</v>
+        <v>-0.157455969553446</v>
       </c>
       <c r="D91">
-        <v>0.05846622430358783</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.08235266816501755</v>
+      </c>
+      <c r="E91">
+        <v>0.1053508052325851</v>
+      </c>
+      <c r="F91">
+        <v>0.03124880924863005</v>
+      </c>
+      <c r="G91">
+        <v>0.07894527946832695</v>
+      </c>
+      <c r="H91">
+        <v>0.1099580592673615</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.163360510284331</v>
+        <v>-0.2161738834964116</v>
       </c>
       <c r="C92">
-        <v>0.287008814381202</v>
+        <v>0.2725059527550736</v>
       </c>
       <c r="D92">
-        <v>0.002764202176666026</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.01982977289463433</v>
+      </c>
+      <c r="E92">
+        <v>0.09416369609770305</v>
+      </c>
+      <c r="F92">
+        <v>-0.01278040434328706</v>
+      </c>
+      <c r="G92">
+        <v>0.0004391053731417032</v>
+      </c>
+      <c r="H92">
+        <v>-0.04331251689095195</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2306078385787891</v>
+        <v>-0.2644713805771117</v>
       </c>
       <c r="C93">
-        <v>0.3222809985301285</v>
+        <v>0.2732120680341495</v>
       </c>
       <c r="D93">
-        <v>0.02136775733731235</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.007713834341459207</v>
+      </c>
+      <c r="E93">
+        <v>0.01280534208988431</v>
+      </c>
+      <c r="F93">
+        <v>0.02384116198429291</v>
+      </c>
+      <c r="G93">
+        <v>0.007465770165901652</v>
+      </c>
+      <c r="H93">
+        <v>0.002749243067022545</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3950554978691957</v>
+        <v>-0.337168258574948</v>
       </c>
       <c r="C94">
-        <v>-0.2452379396710367</v>
+        <v>-0.2665737589106673</v>
       </c>
       <c r="D94">
-        <v>0.4619528656845817</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4423412202130806</v>
+      </c>
+      <c r="E94">
+        <v>0.1164928013005227</v>
+      </c>
+      <c r="F94">
+        <v>-0.02183472572731763</v>
+      </c>
+      <c r="G94">
+        <v>-0.5896570157229228</v>
+      </c>
+      <c r="H94">
+        <v>0.07140025487315338</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.08017023507737704</v>
+        <v>-0.06911219126530611</v>
       </c>
       <c r="C95">
-        <v>-0.07227491535108044</v>
+        <v>-0.06467369699080497</v>
       </c>
       <c r="D95">
-        <v>-0.1221400064570108</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.08268406893581003</v>
+      </c>
+      <c r="E95">
+        <v>0.02153982784779345</v>
+      </c>
+      <c r="F95">
+        <v>-0.9197062530419026</v>
+      </c>
+      <c r="G95">
+        <v>0.07061097806907968</v>
+      </c>
+      <c r="H95">
+        <v>0.08502919645009047</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.178308024822176</v>
+        <v>-0.1637278871232099</v>
       </c>
       <c r="C98">
-        <v>-0.01464346856819588</v>
+        <v>-0.05815643641380257</v>
       </c>
       <c r="D98">
-        <v>-0.1381163617656805</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1241854474451838</v>
+      </c>
+      <c r="E98">
+        <v>-0.3141530367673162</v>
+      </c>
+      <c r="F98">
+        <v>0.04641525833559024</v>
+      </c>
+      <c r="G98">
+        <v>0.02928637447347612</v>
+      </c>
+      <c r="H98">
+        <v>0.04668000209990399</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.005069500108344379</v>
+        <v>-0.006482931005690093</v>
       </c>
       <c r="C101">
-        <v>-0.01924740437056396</v>
+        <v>-0.02256180166457025</v>
       </c>
       <c r="D101">
-        <v>-0.06611217139658816</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.07907895193516096</v>
+      </c>
+      <c r="E101">
+        <v>0.03264635856344181</v>
+      </c>
+      <c r="F101">
+        <v>0.004256682291997705</v>
+      </c>
+      <c r="G101">
+        <v>0.02273599714905809</v>
+      </c>
+      <c r="H101">
+        <v>-0.09758143988756578</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1236338428744602</v>
+        <v>-0.1094204590187714</v>
       </c>
       <c r="C102">
-        <v>-0.1167474287781072</v>
+        <v>-0.1199448296179531</v>
       </c>
       <c r="D102">
-        <v>0.03341078199888511</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.05090023244323524</v>
+      </c>
+      <c r="E102">
+        <v>0.03261200171917489</v>
+      </c>
+      <c r="F102">
+        <v>-0.02046361006757964</v>
+      </c>
+      <c r="G102">
+        <v>0.05593491317442383</v>
+      </c>
+      <c r="H102">
+        <v>-0.0216206311162584</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
